--- a/AdminSoftware/Template/Listting.xlsx
+++ b/AdminSoftware/Template/Listting.xlsx
@@ -77,13 +77,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -97,15 +117,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Mail"/>
-    <tableColumn id="2" name="Ba số Payonner"/>
-    <tableColumn id="3" name="Payonner"/>
-    <tableColumn id="4" name="Listting"/>
-    <tableColumn id="5" name="Balance"/>
-    <tableColumn id="6" name="Ghi chú"/>
+    <tableColumn id="1" name="Mail" dataDxfId="3"/>
+    <tableColumn id="2" name="Ba số Payonner" dataDxfId="4"/>
+    <tableColumn id="3" name="Payonner" dataDxfId="5"/>
+    <tableColumn id="4" name="Listting" dataDxfId="2"/>
+    <tableColumn id="5" name="Balance" dataDxfId="1"/>
+    <tableColumn id="6" name="Ghi chú" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -377,35 +397,36 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
